--- a/Sales Data.xlsx
+++ b/Sales Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>Style</t>
   </si>
@@ -121,6 +121,21 @@
   </si>
   <si>
     <t>Sales 2015</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total By Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month </t>
+  </si>
+  <si>
+    <t>Total Sales</t>
   </si>
 </sst>
 </file>
@@ -255,75 +270,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -350,19 +296,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -385,17 +318,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -422,14 +344,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -439,12 +361,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -454,8 +374,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -464,8 +386,117 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -473,37 +504,13 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -511,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -520,29 +527,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -558,20 +570,237 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Sales by month 2015</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30173508367373758"/>
+          <c:y val="6.3251119495011027E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8658235902330389E-2"/>
+          <c:y val="0.1717822711195986"/>
+          <c:w val="0.7274709922766629"/>
+          <c:h val="0.76553198474641981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total Sales By month 2015</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sales Data and Prices'!$S$2:$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sales Data and Prices'!$T$2:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="96176384"/>
+        <c:axId val="4390912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="96176384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="4390912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4390912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96176384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -595,7 +824,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="971550" y="5543550"/>
+          <a:off x="0" y="5981700"/>
           <a:ext cx="4229100" cy="1657350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -613,6 +842,36 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -905,110 +1164,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="Q2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="33">
+        <f>E$28</f>
+        <v>527</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="26"/>
+      <c r="S3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="33">
+        <v>503</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>35</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="22">
         <v>21</v>
       </c>
       <c r="F4" s="6">
@@ -1041,24 +1323,34 @@
       <c r="O4" s="6">
         <v>15</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="6">
         <v>15</v>
       </c>
+      <c r="Q4" s="8">
+        <f>SUM($E4:$P4)</f>
+        <v>151</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="33">
+        <v>257</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="20">
         <v>35</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="22">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -1091,24 +1383,34 @@
       <c r="O5" s="6">
         <v>8</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="6">
         <v>8</v>
       </c>
+      <c r="Q5" s="8">
+        <f t="shared" ref="Q5:Q27" si="0">SUM($E5:$P5)</f>
+        <v>87</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="33">
+        <v>200</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="20">
         <v>37.9</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="22">
         <v>16</v>
       </c>
       <c r="F6" s="6">
@@ -1141,24 +1443,34 @@
       <c r="O6" s="6">
         <v>11</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="6">
         <v>11</v>
       </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="33">
+        <v>78</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="20">
         <v>50</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="22">
         <v>27</v>
       </c>
       <c r="F7" s="6">
@@ -1191,24 +1503,34 @@
       <c r="O7" s="6">
         <v>19</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="6">
         <v>19</v>
       </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="33">
+        <v>154</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="20">
         <v>52.9</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="22">
         <v>19</v>
       </c>
       <c r="F8" s="6">
@@ -1241,24 +1563,34 @@
       <c r="O8" s="6">
         <v>14</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="6">
         <v>14</v>
       </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="33">
+        <v>503</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="20">
         <v>52.9</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="22">
         <v>31</v>
       </c>
       <c r="F9" s="6">
@@ -1291,24 +1623,34 @@
       <c r="O9" s="6">
         <v>22</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="6">
         <v>22</v>
       </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="33">
+        <v>433</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="20">
         <v>55</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="22">
         <v>17</v>
       </c>
       <c r="F10" s="6">
@@ -1341,24 +1683,34 @@
       <c r="O10" s="6">
         <v>12</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="6">
         <v>12</v>
       </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="33">
+        <v>154</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="20">
         <v>55</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="22">
         <v>30</v>
       </c>
       <c r="F11" s="6">
@@ -1391,24 +1743,34 @@
       <c r="O11" s="6">
         <v>22</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="6">
         <v>22</v>
       </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="33">
+        <v>257</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="20">
         <v>57.9</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="22">
         <v>14</v>
       </c>
       <c r="F12" s="6">
@@ -1441,24 +1803,34 @@
       <c r="O12" s="6">
         <v>10</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="6">
         <v>10</v>
       </c>
+      <c r="Q12" s="8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="33">
+        <v>377</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="20">
         <v>57.9</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="22">
         <v>19</v>
       </c>
       <c r="F13" s="6">
@@ -1491,24 +1863,34 @@
       <c r="O13" s="6">
         <v>14</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="6">
         <v>14</v>
       </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="33">
+        <v>377</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="20">
         <v>57.9</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="22">
         <v>22</v>
       </c>
       <c r="F14" s="6">
@@ -1541,24 +1923,29 @@
       <c r="O14" s="6">
         <v>16</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="6">
         <v>16</v>
       </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="20">
         <v>60.8</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="22">
         <v>25</v>
       </c>
       <c r="F15" s="6">
@@ -1591,24 +1978,29 @@
       <c r="O15" s="6">
         <v>18</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="6">
         <v>18</v>
       </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="20">
         <v>80.5</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="22">
         <v>29</v>
       </c>
       <c r="F16" s="6">
@@ -1641,24 +2033,29 @@
       <c r="O16" s="6">
         <v>21</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="6">
         <v>21</v>
       </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="20">
         <v>80.5</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="22">
         <v>23</v>
       </c>
       <c r="F17" s="6">
@@ -1691,24 +2088,29 @@
       <c r="O17" s="6">
         <v>16</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="6">
         <v>16</v>
       </c>
+      <c r="Q17" s="8">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="20">
         <v>78.400000000000006</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="22">
         <v>14</v>
       </c>
       <c r="F18" s="6">
@@ -1741,24 +2143,29 @@
       <c r="O18" s="6">
         <v>10</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="6">
         <v>10</v>
       </c>
+      <c r="Q18" s="8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="20">
         <v>125.5</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="22">
         <v>15</v>
       </c>
       <c r="F19" s="6">
@@ -1791,24 +2198,29 @@
       <c r="O19" s="6">
         <v>11</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="6">
         <v>11</v>
       </c>
+      <c r="Q19" s="8">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="S19" s="17"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="20">
         <v>145</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="22">
         <v>14</v>
       </c>
       <c r="F20" s="6">
@@ -1841,24 +2253,29 @@
       <c r="O20" s="6">
         <v>10</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="6">
         <v>10</v>
       </c>
+      <c r="Q20" s="8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="20">
         <v>145</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="22">
         <v>29</v>
       </c>
       <c r="F21" s="6">
@@ -1891,24 +2308,29 @@
       <c r="O21" s="6">
         <v>21</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="6">
         <v>21</v>
       </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="20">
         <v>142.9</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="22">
         <v>21</v>
       </c>
       <c r="F22" s="6">
@@ -1941,24 +2363,29 @@
       <c r="O22" s="6">
         <v>15</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="6">
         <v>15</v>
       </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="20">
         <v>190</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="22">
         <v>30</v>
       </c>
       <c r="F23" s="6">
@@ -1991,24 +2418,29 @@
       <c r="O23" s="6">
         <v>22</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="6">
         <v>22</v>
       </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="20">
         <v>190</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="22">
         <v>27</v>
       </c>
       <c r="F24" s="6">
@@ -2041,24 +2473,29 @@
       <c r="O24" s="6">
         <v>19</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="6">
         <v>19</v>
       </c>
+      <c r="Q24" s="8">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="20">
         <v>192.9</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="22">
         <v>20</v>
       </c>
       <c r="F25" s="6">
@@ -2091,24 +2528,29 @@
       <c r="O25" s="6">
         <v>14</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="6">
         <v>14</v>
       </c>
+      <c r="Q25" s="8">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="28">
         <v>245</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="22">
         <v>24</v>
       </c>
       <c r="F26" s="6">
@@ -2141,58 +2583,123 @@
       <c r="O26" s="6">
         <v>17</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="6">
         <v>17</v>
       </c>
+      <c r="Q26" s="8">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="35">
         <v>247.9</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="32">
         <v>28</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="29">
         <v>27</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="29">
         <v>14</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="29">
         <v>11</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="29">
         <v>4</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="29">
         <v>8</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="29">
         <v>27</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="29">
         <v>23</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="29">
         <v>8</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="29">
         <v>14</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="29">
         <v>20</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="29">
         <v>20</v>
+      </c>
+      <c r="Q27" s="30">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="33">
+        <f>SUM(E$4:E$27)</f>
+        <v>527</v>
+      </c>
+      <c r="F28" s="33">
+        <f t="shared" ref="F28:Q28" si="1">SUM(F$4:F$27)</f>
+        <v>503</v>
+      </c>
+      <c r="G28" s="33">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="H28" s="33">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="I28" s="33">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="J28" s="33">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="K28" s="33">
+        <f t="shared" si="1"/>
+        <v>503</v>
+      </c>
+      <c r="L28" s="33">
+        <f t="shared" si="1"/>
+        <v>433</v>
+      </c>
+      <c r="M28" s="33">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="N28" s="33">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="O28" s="33">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+      <c r="P28" s="33">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+      <c r="Q28" s="33">
+        <f t="shared" si="1"/>
+        <v>3820</v>
       </c>
     </row>
   </sheetData>
